--- a/doc/thesis/figures/benchmarks.xlsx
+++ b/doc/thesis/figures/benchmarks.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" r:id="rId1"/>
     <sheet name="Get" sheetId="2" r:id="rId2"/>
     <sheet name="Del" sheetId="3" r:id="rId3"/>
     <sheet name="Find" sheetId="4" r:id="rId4"/>
-    <sheet name="Speed" sheetId="5" r:id="rId5"/>
+    <sheet name="Find (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="Speed" sheetId="5" r:id="rId6"/>
+    <sheet name="Parellel" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="153">
   <si>
     <t>ADD()</t>
   </si>
@@ -457,16 +459,39 @@
   <si>
     <t>Var. Obj. Ov.</t>
   </si>
+  <si>
+    <t>50KV-pair sent</t>
+  </si>
+  <si>
+    <t>76*</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>#clients (100k)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -513,6 +538,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -531,11 +562,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -560,9 +592,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,8 +636,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9824659677655433E-2"/>
-          <c:y val="8.6293932193387143E-2"/>
+          <c:x val="8.9824659677655461E-2"/>
+          <c:y val="8.6293932193387157E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
         </c:manualLayout>
@@ -590,76 +645,8 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Client min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$3:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$M$3:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1632</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Add!$N$2</c:f>
@@ -679,8 +666,8 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -737,7 +724,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Add!$O$2</c:f>
@@ -804,76 +791,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$3:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$P$3:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>76.379060745199993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62.832832336400003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.656000137299998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>172.99389839200001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Add!$Q$2</c:f>
@@ -949,80 +868,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$R$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server max.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="C0504D"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$3:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$R$3:$R$6</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>207.63802528400001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>272.74298667900001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>305.018901825</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>292.03200340299998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76504448"/>
-        <c:axId val="76568448"/>
+        <c:axId val="70961024"/>
+        <c:axId val="70971776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76504448"/>
+        <c:axId val="70961024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,14 +905,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76568448"/>
+        <c:crossAx val="70971776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76568448"/>
+        <c:axId val="70971776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,25 +939,26 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.5558988670719971E-3"/>
+              <c:y val="2.5558988670719976E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76504448"/>
+        <c:crossAx val="70961024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1123,7 +975,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9824659677655641E-2"/>
+          <c:x val="8.9824659677655655E-2"/>
           <c:y val="8.6293932193387227E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
@@ -1400,11 +1252,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77406976"/>
-        <c:axId val="77408896"/>
+        <c:axId val="71818240"/>
+        <c:axId val="71828608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77406976"/>
+        <c:axId val="71818240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,21 +1290,21 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.81234999595877122"/>
+              <c:x val="0.81234999595877133"/>
               <c:y val="0.89187376725838263"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77408896"/>
+        <c:crossAx val="71828608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77408896"/>
+        <c:axId val="71828608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,13 +1331,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.5558988670720023E-3"/>
+              <c:y val="2.5558988670720032E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77406976"/>
+        <c:crossAx val="71818240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1497,9 +1349,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.81323600352224956"/>
-          <c:y val="0.28600102501980224"/>
+          <c:y val="0.28600102501980235"/>
           <c:w val="0.17482441923284714"/>
-          <c:h val="0.28533196664026489"/>
+          <c:h val="0.28533196664026494"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1507,7 +1359,466 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.982465967765571E-2"/>
+          <c:y val="8.6293932193387227E-2"/>
+          <c:w val="0.72456060281312562"/>
+          <c:h val="0.80258048440147511"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Find (2)'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Find (2)'!$J$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Find (2)'!$J$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>180.42309284219999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>247.77035713190003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>935.39950847590012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1274.088907242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6547.5533246989999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11418.754577658001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Find (2)'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Find (2)'!$J$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Find (2)'!$J$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>1613.438701631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2727.1083831779993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2855.567407607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8935.9255790719999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13172.378635420002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Find (2)'!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Find (2)'!$J$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Find (2)'!$J$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>11015.942144399</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>11708.138132099999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>17741.123628630001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>26108.66813659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Find (2)'!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Find (2)'!$J$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Find (2)'!$J$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>20033.646249779998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="49813376"/>
+        <c:axId val="49831936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49813376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="r">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Key-value pairs per</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="r">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>object in database</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.81234999595877155"/>
+              <c:y val="0.89187376725838263"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49831936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49831936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1074199052013681E-2"/>
+              <c:y val="2.5558988670720041E-3"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49813376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81323600352224956"/>
+          <c:y val="0.28600102501980246"/>
+          <c:w val="9.7698541329011346E-2"/>
+          <c:h val="0.28533196664026467"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1525,8 +1836,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9824659677655488E-2"/>
-          <c:y val="8.6293932193387171E-2"/>
+          <c:x val="8.9824659677655516E-2"/>
+          <c:y val="8.6293932193387185E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
         </c:manualLayout>
@@ -1534,82 +1845,8 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$M$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Client min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$24:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$M$24:$M$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>968</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Add!$N$23</c:f>
@@ -1629,8 +1866,8 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1692,156 +1929,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$O$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Client max.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$24:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$O$24:$O$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>718</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1647</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$P$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$24:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$P$24:$P$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>76.379060745199993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>132.34996795699999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>257.31801986699998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>490.756988525</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>817.63291358900005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Add!$Q$23</c:f>
@@ -1923,86 +2012,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$R$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server max.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="C0504D"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$24:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$R$24:$R$28</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>207.63802528400001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>451.2591362</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>574.36680793799997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>724.40218925500005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1378.51595879</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76600832"/>
-        <c:axId val="76602752"/>
+        <c:axId val="70774784"/>
+        <c:axId val="70776704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76600832"/>
+        <c:axId val="70774784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,14 +2054,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76602752"/>
+        <c:crossAx val="70776704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76602752"/>
+        <c:axId val="70776704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,25 +2088,26 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.555898867071998E-3"/>
+              <c:y val="2.5558988670719984E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76600832"/>
+        <c:crossAx val="70774784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2108,8 +2124,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.982465967765553E-2"/>
-          <c:y val="8.6293932193387213E-2"/>
+          <c:x val="8.9824659677655558E-2"/>
+          <c:y val="8.6293932193387227E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
         </c:manualLayout>
@@ -2117,76 +2133,8 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$M$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$45:$L$48</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$M$45:$M$48</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>76.379060745199993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62.832832336400003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.656000137299998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>172.99389839200001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Add!$N$44</c:f>
@@ -2206,8 +2154,8 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2263,144 +2211,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$O$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server max.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$45:$L$48</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$O$45:$O$48</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>207.63802528400001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>272.74298667900001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>305.018901825</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>292.03200340299998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$P$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server* min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$45:$L$48</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$P$45:$P$48</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>169.883012772</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>171.427965164</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>182.434082031</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>354.54702377299998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Add!$Q$44</c:f>
@@ -2476,80 +2288,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$R$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server* max.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="C0504D"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$45:$L$48</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$R$45:$R$48</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>289.95203971900003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>322.09396362299998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>319.47398185700001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>551.95999145500002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76459008"/>
-        <c:axId val="76469376"/>
+        <c:axId val="71349760"/>
+        <c:axId val="71351680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76459008"/>
+        <c:axId val="71349760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,14 +2330,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76469376"/>
+        <c:crossAx val="71351680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76469376"/>
+        <c:axId val="71351680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,25 +2364,26 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.5558988670719989E-3"/>
+              <c:y val="2.5558988670719997E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76459008"/>
+        <c:crossAx val="71349760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2656,8 +2401,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.982465967765553E-2"/>
-          <c:y val="8.6293932193387213E-2"/>
+          <c:x val="8.9824659677655558E-2"/>
+          <c:y val="8.6293932193387227E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
         </c:manualLayout>
@@ -2665,82 +2410,8 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$M$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$66:$L$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$M$66:$M$70</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>76.379060745199993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>132.34996795699999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>257.31801986699998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>490.756988525</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>817.63291358900005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Add!$N$65</c:f>
@@ -2760,8 +2431,8 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2823,156 +2494,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$O$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server max.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$66:$L$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$O$66:$O$70</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>207.63802528400001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>451.2591362</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>574.36680793799997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>724.40218925500005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1378.51595879</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$P$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server* min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$66:$L$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$P$66:$P$70</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>169.883012772</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>243.26395988499999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>423.20895195000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700.83594322199997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1299.89600182</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Add!$Q$65</c:f>
@@ -3054,86 +2577,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Add!$R$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server* max.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="C0504D"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Add!$L$66:$L$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Add!$R$66:$R$70</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>289.95203971900003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>342.54598617599999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>625.16403198199998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1858.33621025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2021.3718414299999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76711040"/>
-        <c:axId val="76712960"/>
+        <c:axId val="71409024"/>
+        <c:axId val="71427584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76711040"/>
+        <c:axId val="71409024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,14 +2619,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76712960"/>
+        <c:crossAx val="71427584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76712960"/>
+        <c:axId val="71427584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -3205,26 +2654,27 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.5558988670719989E-3"/>
+              <c:y val="2.5558988670719997E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76711040"/>
+        <c:crossAx val="71409024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="500"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3242,8 +2692,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9824659677655488E-2"/>
-          <c:y val="8.6293932193387171E-2"/>
+          <c:x val="8.9824659677655516E-2"/>
+          <c:y val="8.6293932193387185E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
         </c:manualLayout>
@@ -3251,76 +2701,8 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Get!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Client min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Get!$G$4:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Get!$H$4:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>452</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Get!$I$3</c:f>
@@ -3340,8 +2722,8 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3397,144 +2779,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Get!$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Client max.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Get!$G$4:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Get!$J$4:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>766</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Get!$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server min.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Get!$G$4:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Get!$K$4:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>27.362108230600001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.415027618400003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.507108688400002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>112.53190040600001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Get!$L$3</c:f>
@@ -3610,80 +2856,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Get!$M$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Server max.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="C0504D"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Get!$G$4:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>#.##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>730000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Get!$M$4:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>33.594131469700002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.531181335400007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.987203597999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>354.53510284399999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77007872"/>
-        <c:axId val="77026432"/>
+        <c:axId val="71616000"/>
+        <c:axId val="71617920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77007872"/>
+        <c:axId val="71616000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3715,14 +2893,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77026432"/>
+        <c:crossAx val="71617920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77026432"/>
+        <c:axId val="71617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,13 +2927,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.555898867071998E-3"/>
+              <c:y val="2.5558988670719984E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77007872"/>
+        <c:crossAx val="71616000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,9 +2944,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81323600352224967"/>
-          <c:y val="0.28600102501980174"/>
-          <c:w val="0.18460300242048361"/>
+          <c:x val="0.81323600352224956"/>
+          <c:y val="0.28600102501980185"/>
+          <c:w val="0.18460300242048364"/>
           <c:h val="0.42799794996039697"/>
         </c:manualLayout>
       </c:layout>
@@ -3777,7 +2955,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3794,8 +2972,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.982465967765553E-2"/>
-          <c:y val="8.6293932193387213E-2"/>
+          <c:x val="8.9824659677655558E-2"/>
+          <c:y val="8.6293932193387227E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
         </c:manualLayout>
@@ -3999,11 +3177,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77052160"/>
-        <c:axId val="77066624"/>
+        <c:axId val="71467776"/>
+        <c:axId val="71469696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77052160"/>
+        <c:axId val="71467776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,14 +3213,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77066624"/>
+        <c:crossAx val="71469696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77066624"/>
+        <c:axId val="71469696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,13 +3247,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.5558988670719989E-3"/>
+              <c:y val="2.5558988670719997E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77052160"/>
+        <c:crossAx val="71467776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4087,8 +3265,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.81323600352224956"/>
-          <c:y val="0.2860010250198019"/>
-          <c:w val="0.18460300242048366"/>
+          <c:y val="0.28600102501980196"/>
+          <c:w val="0.18460300242048369"/>
           <c:h val="0.42799794996039697"/>
         </c:manualLayout>
       </c:layout>
@@ -4097,7 +3275,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4114,7 +3292,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9824659677655572E-2"/>
+          <c:x val="8.9824659677655586E-2"/>
           <c:y val="8.6293932193387227E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
@@ -4319,11 +3497,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77191040"/>
-        <c:axId val="77209600"/>
+        <c:axId val="71721344"/>
+        <c:axId val="71723264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77191040"/>
+        <c:axId val="71721344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4355,14 +3533,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77209600"/>
+        <c:crossAx val="71723264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77209600"/>
+        <c:axId val="71723264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4389,13 +3567,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.5558988670720006E-3"/>
+              <c:y val="2.555898867072001E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77191040"/>
+        <c:crossAx val="71721344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4407,8 +3585,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.81323600352224956"/>
-          <c:y val="0.28600102501980201"/>
-          <c:w val="0.18460300242048372"/>
+          <c:y val="0.28600102501980207"/>
+          <c:w val="0.18460300242048375"/>
           <c:h val="0.42799794996039697"/>
         </c:manualLayout>
       </c:layout>
@@ -4417,7 +3595,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4434,7 +3612,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9824659677655586E-2"/>
+          <c:x val="8.9824659677655599E-2"/>
           <c:y val="8.6293932193387227E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
@@ -4657,11 +3835,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77239424"/>
-        <c:axId val="77241344"/>
+        <c:axId val="71732608"/>
+        <c:axId val="71640576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77239424"/>
+        <c:axId val="71732608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4693,14 +3871,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77241344"/>
+        <c:crossAx val="71640576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77241344"/>
+        <c:axId val="71640576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4727,13 +3905,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.555898867072001E-3"/>
+              <c:y val="2.5558988670720015E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77239424"/>
+        <c:crossAx val="71732608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4745,8 +3923,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.81323600352224956"/>
-          <c:y val="0.28600102501980207"/>
-          <c:w val="0.18460300242048375"/>
+          <c:y val="0.28600102501980212"/>
+          <c:w val="0.18460300242048377"/>
           <c:h val="0.42799794996039697"/>
         </c:manualLayout>
       </c:layout>
@@ -4755,7 +3933,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4772,7 +3950,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9824659677655599E-2"/>
+          <c:x val="8.9824659677655627E-2"/>
           <c:y val="8.6293932193387227E-2"/>
           <c:w val="0.72456060281312562"/>
           <c:h val="0.80258048440147511"/>
@@ -5013,11 +4191,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77283712"/>
-        <c:axId val="77285632"/>
+        <c:axId val="71662208"/>
+        <c:axId val="71676672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77283712"/>
+        <c:axId val="71662208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,14 +4227,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77285632"/>
+        <c:crossAx val="71676672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77285632"/>
+        <c:axId val="71676672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,13 +4261,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.1074199052013681E-2"/>
-              <c:y val="2.5558988670720015E-3"/>
+              <c:y val="2.5558988670720019E-3"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77283712"/>
+        <c:crossAx val="71662208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5101,8 +4279,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.81323600352224956"/>
-          <c:y val="0.28600102501980212"/>
-          <c:w val="0.18460300242048377"/>
+          <c:y val="0.28600102501980218"/>
+          <c:w val="0.1846030024204838"/>
           <c:h val="0.42799794996039697"/>
         </c:manualLayout>
       </c:layout>
@@ -5111,7 +4289,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5603,6 +4781,81 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80065</cdr:x>
+      <cdr:y>0.22189</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99676</cdr:x>
+      <cdr:y>0.29882</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4705349" y="714376"/>
+          <a:ext cx="1152526" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
+            <a:t>Key-value pairs sent</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5953,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView topLeftCell="L34" workbookViewId="0">
+      <selection activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.95" customHeight="1"/>
@@ -8517,8 +7770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.95" customHeight="1"/>
@@ -9867,8 +9120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="G27" workbookViewId="0">
-      <selection activeCell="U67" sqref="U67"/>
+    <sheetView topLeftCell="I27" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.95" customHeight="1"/>
@@ -11474,9 +10727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV103"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
@@ -12933,9 +12184,2097 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IW119"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1"/>
+    <col min="9" max="9" width="12.140625" style="6"/>
+    <col min="10" max="16384" width="12.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:257" s="3" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="6"/>
+      <c r="T1"/>
+      <c r="U1"/>
+    </row>
+    <row r="2" spans="1:257" s="3" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="6"/>
+      <c r="T2"/>
+      <c r="U2"/>
+    </row>
+    <row r="3" spans="1:257" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="3">
+        <v>500</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <v>50</v>
+      </c>
+      <c r="M3" s="3">
+        <v>100</v>
+      </c>
+      <c r="N3" s="3">
+        <v>500</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="6"/>
+      <c r="T3"/>
+      <c r="U3"/>
+    </row>
+    <row r="4" spans="1:257" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>171.94795608499999</v>
+      </c>
+      <c r="C4">
+        <v>237.95390129099999</v>
+      </c>
+      <c r="D4" s="6">
+        <v>946.20585441599997</v>
+      </c>
+      <c r="E4">
+        <v>1243.08896065</v>
+      </c>
+      <c r="F4">
+        <v>6180.4449558300003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>13051.2800217</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
+        <f>B15</f>
+        <v>180.42309284219999</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" ref="K4:O4" si="0">C15</f>
+        <v>247.77035713190003</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" si="0"/>
+        <v>935.39950847590012</v>
+      </c>
+      <c r="M4" s="17">
+        <f t="shared" si="0"/>
+        <v>1274.088907242</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" si="0"/>
+        <v>6547.5533246989999</v>
+      </c>
+      <c r="O4" s="17">
+        <f t="shared" si="0"/>
+        <v>11418.754577658001</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="6"/>
+      <c r="T4"/>
+      <c r="U4"/>
+    </row>
+    <row r="5" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>204.74982261700001</v>
+      </c>
+      <c r="C5">
+        <v>233.78801345799999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>812.87312507599995</v>
+      </c>
+      <c r="E5">
+        <v>1210.81805229</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7291.9571399699998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10859.579801600001</v>
+      </c>
+      <c r="I5" s="30">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="17">
+        <f>C31</f>
+        <v>1613.438701631</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" ref="L5:O5" si="1">D31</f>
+        <v>2727.1083831779993</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="1"/>
+        <v>2855.567407607</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="1"/>
+        <v>8935.9255790719999</v>
+      </c>
+      <c r="O5" s="17">
+        <f t="shared" si="1"/>
+        <v>13172.378635420002</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="6"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="IW5"/>
+    </row>
+    <row r="6" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>189.963102341</v>
+      </c>
+      <c r="C6">
+        <v>257.989168167</v>
+      </c>
+      <c r="D6" s="6">
+        <v>869.48394775400004</v>
+      </c>
+      <c r="E6">
+        <v>1350.3351211500001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6263.5159492499997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10099.599838300001</v>
+      </c>
+      <c r="I6" s="30">
+        <v>50</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="17">
+        <f>D46</f>
+        <v>11015.942144399</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" ref="M6:O6" si="2">E46</f>
+        <v>11708.138132099999</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="2"/>
+        <v>17741.123628630001</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" si="2"/>
+        <v>26108.66813659</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="IW6"/>
+    </row>
+    <row r="7" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>179.38399314899999</v>
+      </c>
+      <c r="C7">
+        <v>239.663124084</v>
+      </c>
+      <c r="D7" s="6">
+        <v>935.99200248700004</v>
+      </c>
+      <c r="E7">
+        <v>1465.3389453899999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6857.3338985399996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10901.278018999999</v>
+      </c>
+      <c r="I7" s="30">
+        <v>100</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="17">
+        <f>E63</f>
+        <v>20033.646249779998</v>
+      </c>
+      <c r="N7" s="31">
+        <v>30000</v>
+      </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="6"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="IW7"/>
+    </row>
+    <row r="8" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>182.990074158</v>
+      </c>
+      <c r="C8">
+        <v>243.29400062600001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>849.83587265000006</v>
+      </c>
+      <c r="E8">
+        <v>1431.39505386</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6611.3920211799996</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11616.0371304</v>
+      </c>
+      <c r="I8" s="30">
+        <v>500</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="6"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="IW8"/>
+    </row>
+    <row r="9" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>162.66012191799999</v>
+      </c>
+      <c r="C9">
+        <v>273.35309982299998</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1036.7720127099999</v>
+      </c>
+      <c r="E9">
+        <v>1169.8281764999999</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6187.0281696299999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11984.215974799999</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="6"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="IW9"/>
+    </row>
+    <row r="10" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>163.307905197</v>
+      </c>
+      <c r="C10" s="7">
+        <v>236.42706870999999</v>
+      </c>
+      <c r="D10" s="6">
+        <v>837.20302581800001</v>
+      </c>
+      <c r="E10">
+        <v>1266.18599892</v>
+      </c>
+      <c r="F10" s="6">
+        <v>6543.86806488</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11905.8930874</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="6"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="IW10"/>
+    </row>
+    <row r="11" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>179.99100685100001</v>
+      </c>
+      <c r="C11">
+        <v>248.26598167399999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1259.53197479</v>
+      </c>
+      <c r="E11">
+        <v>1165.6990051299999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6725.0759601600002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9593.2941436799993</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="IW11"/>
+    </row>
+    <row r="12" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>157.75585174599999</v>
+      </c>
+      <c r="C12">
+        <v>253.601074219</v>
+      </c>
+      <c r="D12" s="6">
+        <v>946.37918472299998</v>
+      </c>
+      <c r="E12">
+        <v>1206.81285858</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5716.8951034499996</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11819.715976699999</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="IW12"/>
+    </row>
+    <row r="13" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>211.48109435999999</v>
+      </c>
+      <c r="C13">
+        <v>253.368139267</v>
+      </c>
+      <c r="D13" s="6">
+        <v>859.71808433499996</v>
+      </c>
+      <c r="E13">
+        <v>1231.38689995</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7098.0219840999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12356.651782999999</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="IW13"/>
+    </row>
+    <row r="14" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <f>MIN(B4:B13)</f>
+        <v>157.75585174599999</v>
+      </c>
+      <c r="C14" s="4">
+        <f>MIN(C4:C13)</f>
+        <v>233.78801345799999</v>
+      </c>
+      <c r="D14" s="4">
+        <f>MIN(D4:D13)</f>
+        <v>812.87312507599995</v>
+      </c>
+      <c r="E14" s="4">
+        <f>MIN(E4:E13)</f>
+        <v>1165.6990051299999</v>
+      </c>
+      <c r="F14" s="4">
+        <f>MIN(F4:F13)</f>
+        <v>5716.8951034499996</v>
+      </c>
+      <c r="G14" s="4">
+        <f>MIN(G4:G13)</f>
+        <v>9593.2941436799993</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="IW14"/>
+    </row>
+    <row r="15" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <f>AVERAGE(B4:B13)</f>
+        <v>180.42309284219999</v>
+      </c>
+      <c r="C15" s="4">
+        <f>AVERAGE(C4:C13)</f>
+        <v>247.77035713190003</v>
+      </c>
+      <c r="D15" s="4">
+        <f>AVERAGE(D4:D13)</f>
+        <v>935.39950847590012</v>
+      </c>
+      <c r="E15" s="4">
+        <f>AVERAGE(E4:E13)</f>
+        <v>1274.088907242</v>
+      </c>
+      <c r="F15" s="4">
+        <f>AVERAGE(F4:F13)</f>
+        <v>6547.5533246989999</v>
+      </c>
+      <c r="G15" s="4">
+        <f>AVERAGE(G4:G13)</f>
+        <v>11418.754577658001</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="IW15"/>
+    </row>
+    <row r="16" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4">
+        <f>MAX(B4:B13)</f>
+        <v>211.48109435999999</v>
+      </c>
+      <c r="C16" s="4">
+        <f>MAX(C4:C13)</f>
+        <v>273.35309982299998</v>
+      </c>
+      <c r="D16" s="4">
+        <f>MAX(D4:D13)</f>
+        <v>1259.53197479</v>
+      </c>
+      <c r="E16" s="4">
+        <f>MAX(E4:E13)</f>
+        <v>1465.3389453899999</v>
+      </c>
+      <c r="F16" s="4">
+        <f>MAX(F4:F13)</f>
+        <v>7291.9571399699998</v>
+      </c>
+      <c r="G16" s="4">
+        <f>MAX(G4:G13)</f>
+        <v>13051.2800217</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="IW16"/>
+    </row>
+    <row r="17" spans="1:257" ht="12.95" customHeight="1">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17"/>
+      <c r="IW17"/>
+    </row>
+    <row r="18" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18"/>
+      <c r="IW18"/>
+    </row>
+    <row r="19" spans="1:257" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="3">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="3">
+        <v>500</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:257" s="3" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20">
+        <v>1521.98290825</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2413.4650230399998</v>
+      </c>
+      <c r="E20">
+        <v>2655.4861068700002</v>
+      </c>
+      <c r="F20">
+        <v>10017.1558857</v>
+      </c>
+      <c r="G20" s="1">
+        <v>16893.714904799999</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1561.73706055</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2985.2809906000002</v>
+      </c>
+      <c r="E21">
+        <v>2936.7339611100001</v>
+      </c>
+      <c r="F21" s="6">
+        <v>9588.4540080999996</v>
+      </c>
+      <c r="G21" s="1">
+        <v>12455.354928999999</v>
+      </c>
+      <c r="I21"/>
+      <c r="IW21"/>
+    </row>
+    <row r="22" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1530.9660434699999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3096.00996971</v>
+      </c>
+      <c r="E22">
+        <v>2859.0419292400002</v>
+      </c>
+      <c r="F22" s="6">
+        <v>9577.8629779799994</v>
+      </c>
+      <c r="G22" s="1">
+        <v>12203.300952899999</v>
+      </c>
+      <c r="I22"/>
+      <c r="IW22"/>
+    </row>
+    <row r="23" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1576.71403885</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2942.4378871899999</v>
+      </c>
+      <c r="E23">
+        <v>2916.0339832300001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>9215.9368991899992</v>
+      </c>
+      <c r="G23" s="1">
+        <v>13066.8148994</v>
+      </c>
+      <c r="I23"/>
+      <c r="IW23"/>
+    </row>
+    <row r="24" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>1644.1609859499999</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2835.9060287500001</v>
+      </c>
+      <c r="E24">
+        <v>2666.03708267</v>
+      </c>
+      <c r="F24" s="6">
+        <v>8659.8660945899992</v>
+      </c>
+      <c r="G24" s="1">
+        <v>12953.135967300001</v>
+      </c>
+      <c r="I24"/>
+      <c r="IW24"/>
+    </row>
+    <row r="25" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>1542.4020290399999</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2576.0638713799999</v>
+      </c>
+      <c r="E25">
+        <v>3044.4269180299998</v>
+      </c>
+      <c r="F25" s="6">
+        <v>8041.9259071400002</v>
+      </c>
+      <c r="G25" s="1">
+        <v>13241.189003</v>
+      </c>
+      <c r="I25"/>
+      <c r="IW25"/>
+    </row>
+    <row r="26" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1508.7449550599999</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2677.4389743800002</v>
+      </c>
+      <c r="E26">
+        <v>3123.4500408200001</v>
+      </c>
+      <c r="F26" s="6">
+        <v>8039.5860671999999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>12012.215852699999</v>
+      </c>
+      <c r="I26"/>
+      <c r="IW26"/>
+    </row>
+    <row r="27" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1552.38103867</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2452.9268741599999</v>
+      </c>
+      <c r="E27">
+        <v>2757.5030326800002</v>
+      </c>
+      <c r="F27" s="6">
+        <v>9293.6339378400007</v>
+      </c>
+      <c r="G27" s="1">
+        <v>12164.170980499999</v>
+      </c>
+      <c r="I27"/>
+      <c r="IW27"/>
+    </row>
+    <row r="28" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1588.4139537799999</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2473.38819504</v>
+      </c>
+      <c r="E28">
+        <v>2714.9469852399998</v>
+      </c>
+      <c r="F28" s="6">
+        <v>8417.0000553099999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>13543.025970500001</v>
+      </c>
+      <c r="I28"/>
+      <c r="IW28"/>
+    </row>
+    <row r="29" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2106.8840026900002</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2818.1660175299999</v>
+      </c>
+      <c r="E29">
+        <v>2882.0140361799999</v>
+      </c>
+      <c r="F29" s="6">
+        <v>8507.83395767</v>
+      </c>
+      <c r="G29" s="1">
+        <v>13190.862894100001</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29"/>
+      <c r="IW29"/>
+    </row>
+    <row r="30" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4">
+        <f>MIN(C20:C29)</f>
+        <v>1508.7449550599999</v>
+      </c>
+      <c r="D30" s="4">
+        <f>MIN(D20:D29)</f>
+        <v>2413.4650230399998</v>
+      </c>
+      <c r="E30" s="4">
+        <f>MIN(E20:E29)</f>
+        <v>2655.4861068700002</v>
+      </c>
+      <c r="F30" s="4">
+        <f>MIN(F20:F29)</f>
+        <v>8039.5860671999999</v>
+      </c>
+      <c r="G30" s="4">
+        <f>MIN(G20:G29)</f>
+        <v>12012.215852699999</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30"/>
+      <c r="IW30"/>
+    </row>
+    <row r="31" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4">
+        <f>AVERAGE(C20:C29)</f>
+        <v>1613.438701631</v>
+      </c>
+      <c r="D31" s="4">
+        <f>AVERAGE(D20:D29)</f>
+        <v>2727.1083831779993</v>
+      </c>
+      <c r="E31" s="4">
+        <f>AVERAGE(E20:E29)</f>
+        <v>2855.567407607</v>
+      </c>
+      <c r="F31" s="4">
+        <f>AVERAGE(F20:F29)</f>
+        <v>8935.9255790719999</v>
+      </c>
+      <c r="G31" s="4">
+        <f>AVERAGE(G20:G29)</f>
+        <v>13172.378635420002</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31"/>
+      <c r="IW31"/>
+    </row>
+    <row r="32" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4">
+        <f>MAX(C20:C29)</f>
+        <v>2106.8840026900002</v>
+      </c>
+      <c r="D32" s="4">
+        <f>MAX(D20:D29)</f>
+        <v>3096.00996971</v>
+      </c>
+      <c r="E32" s="4">
+        <f>MAX(E20:E29)</f>
+        <v>3123.4500408200001</v>
+      </c>
+      <c r="F32" s="4">
+        <f>MAX(F20:F29)</f>
+        <v>10017.1558857</v>
+      </c>
+      <c r="G32" s="4">
+        <f>MAX(G20:G29)</f>
+        <v>16893.714904799999</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32"/>
+      <c r="IW32"/>
+    </row>
+    <row r="33" spans="1:257" ht="12.95" customHeight="1">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33"/>
+      <c r="IW33"/>
+    </row>
+    <row r="34" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5">
+        <v>50</v>
+      </c>
+      <c r="E34" s="5">
+        <v>100</v>
+      </c>
+      <c r="F34" s="5">
+        <v>500</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34"/>
+      <c r="IW34"/>
+    </row>
+    <row r="35" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35">
+        <v>9979.8219203900007</v>
+      </c>
+      <c r="E35">
+        <v>11638.903856299999</v>
+      </c>
+      <c r="F35">
+        <v>18524.213075600001</v>
+      </c>
+      <c r="G35" s="6">
+        <v>26851.392984400001</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35"/>
+      <c r="IW35"/>
+    </row>
+    <row r="36" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36">
+        <v>11212.2910023</v>
+      </c>
+      <c r="E36">
+        <v>12252.8998852</v>
+      </c>
+      <c r="F36">
+        <v>17044.579982800002</v>
+      </c>
+      <c r="G36">
+        <v>27527.442932099999</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36"/>
+      <c r="IW36"/>
+    </row>
+    <row r="37" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37">
+        <v>11096.2660313</v>
+      </c>
+      <c r="E37">
+        <v>11983.3729267</v>
+      </c>
+      <c r="F37">
+        <v>16098.1240273</v>
+      </c>
+      <c r="G37">
+        <v>28008.319139499999</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37"/>
+      <c r="IW37"/>
+    </row>
+    <row r="38" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38">
+        <v>10293.444871899999</v>
+      </c>
+      <c r="E38">
+        <v>12962.0630741</v>
+      </c>
+      <c r="F38">
+        <v>17722.018003500001</v>
+      </c>
+      <c r="G38">
+        <v>27399.513959899999</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38"/>
+      <c r="IW38"/>
+    </row>
+    <row r="39" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39">
+        <v>10664.303779600001</v>
+      </c>
+      <c r="E39">
+        <v>11674.2959023</v>
+      </c>
+      <c r="F39">
+        <v>16683.047056200001</v>
+      </c>
+      <c r="G39">
+        <v>24667.353153200002</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39"/>
+      <c r="IW39"/>
+    </row>
+    <row r="40" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40">
+        <v>10528.8128853</v>
+      </c>
+      <c r="E40">
+        <v>11290.1558876</v>
+      </c>
+      <c r="F40">
+        <v>17257.9030991</v>
+      </c>
+      <c r="G40">
+        <v>25844.948053399999</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40"/>
+      <c r="IW40"/>
+    </row>
+    <row r="41" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41">
+        <v>10322.313070300001</v>
+      </c>
+      <c r="E41">
+        <v>10751.405000700001</v>
+      </c>
+      <c r="F41">
+        <v>17138.9460564</v>
+      </c>
+      <c r="G41">
+        <v>24895.394086799999</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41"/>
+      <c r="IW41"/>
+    </row>
+    <row r="42" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42">
+        <v>11612.145900699999</v>
+      </c>
+      <c r="E42">
+        <v>11522.300958600001</v>
+      </c>
+      <c r="F42">
+        <v>18027.157068299999</v>
+      </c>
+      <c r="G42">
+        <v>24967.853069299999</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42"/>
+      <c r="IW42"/>
+    </row>
+    <row r="43" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43">
+        <v>13029.675006900001</v>
+      </c>
+      <c r="E43">
+        <v>11559.0469837</v>
+      </c>
+      <c r="F43">
+        <v>19280.4369926</v>
+      </c>
+      <c r="G43">
+        <v>25937.711954099999</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43"/>
+      <c r="IW43"/>
+    </row>
+    <row r="44" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44">
+        <v>11420.346975300001</v>
+      </c>
+      <c r="E44">
+        <v>11446.936845800001</v>
+      </c>
+      <c r="F44">
+        <v>19634.810924500001</v>
+      </c>
+      <c r="G44">
+        <v>24986.752033199999</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44"/>
+      <c r="IW44"/>
+    </row>
+    <row r="45" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4">
+        <f>MIN(D35:D44)</f>
+        <v>9979.8219203900007</v>
+      </c>
+      <c r="E45" s="4">
+        <f>MIN(E35:E44)</f>
+        <v>10751.405000700001</v>
+      </c>
+      <c r="F45" s="4">
+        <f>MIN(F35:F44)</f>
+        <v>16098.1240273</v>
+      </c>
+      <c r="G45" s="4">
+        <f>MIN(G35:G44)</f>
+        <v>24667.353153200002</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45"/>
+      <c r="IW45"/>
+    </row>
+    <row r="46" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
+        <f>AVERAGE(D35:D44)</f>
+        <v>11015.942144399</v>
+      </c>
+      <c r="E46" s="4">
+        <f>AVERAGE(E35:E44)</f>
+        <v>11708.138132099999</v>
+      </c>
+      <c r="F46" s="4">
+        <f>AVERAGE(F35:F44)</f>
+        <v>17741.123628630001</v>
+      </c>
+      <c r="G46" s="4">
+        <f>AVERAGE(G35:G44)</f>
+        <v>26108.66813659</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46"/>
+      <c r="IW46"/>
+    </row>
+    <row r="47" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <f>MAX(D35:D44)</f>
+        <v>13029.675006900001</v>
+      </c>
+      <c r="E47" s="4">
+        <f>MAX(E35:E44)</f>
+        <v>12962.0630741</v>
+      </c>
+      <c r="F47" s="4">
+        <f>MAX(F35:F44)</f>
+        <v>19634.810924500001</v>
+      </c>
+      <c r="G47" s="4">
+        <f>MAX(G35:G44)</f>
+        <v>28008.319139499999</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47"/>
+      <c r="IW47"/>
+    </row>
+    <row r="48" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48"/>
+      <c r="IW48"/>
+    </row>
+    <row r="49" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49"/>
+      <c r="IW49"/>
+    </row>
+    <row r="50" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="I50"/>
+      <c r="IW50"/>
+    </row>
+    <row r="51" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="3">
+        <v>500</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51"/>
+      <c r="IW51"/>
+    </row>
+    <row r="52" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>21313.393115999999</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52"/>
+      <c r="IW52"/>
+    </row>
+    <row r="53" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A53" s="1">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>22062.911987300002</v>
+      </c>
+      <c r="F53"/>
+      <c r="I53"/>
+      <c r="IW53"/>
+    </row>
+    <row r="54" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A54" s="1">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>19747.631788300001</v>
+      </c>
+      <c r="F54"/>
+      <c r="I54"/>
+      <c r="IW54"/>
+    </row>
+    <row r="55" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A55" s="1">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>20023.916959800001</v>
+      </c>
+      <c r="F55"/>
+      <c r="I55"/>
+      <c r="IW55"/>
+    </row>
+    <row r="56" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>19961.2028599</v>
+      </c>
+      <c r="F56"/>
+      <c r="I56"/>
+      <c r="IW56"/>
+    </row>
+    <row r="57" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A57" s="1">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>19494.860887499999</v>
+      </c>
+      <c r="F57"/>
+      <c r="I57"/>
+      <c r="IW57"/>
+    </row>
+    <row r="58" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>19287.8530025</v>
+      </c>
+      <c r="F58"/>
+      <c r="I58"/>
+      <c r="IW58"/>
+    </row>
+    <row r="59" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>17946.2478161</v>
+      </c>
+      <c r="F59"/>
+      <c r="I59"/>
+      <c r="IW59"/>
+    </row>
+    <row r="60" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>19123.8510609</v>
+      </c>
+      <c r="F60"/>
+      <c r="H60" s="4"/>
+      <c r="I60"/>
+      <c r="IW60"/>
+    </row>
+    <row r="61" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>21374.5930195</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61"/>
+      <c r="IW61"/>
+    </row>
+    <row r="62" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4">
+        <f>MIN(E52:E61)</f>
+        <v>17946.2478161</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4">
+        <f>MIN(G52:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62"/>
+      <c r="IW62"/>
+    </row>
+    <row r="63" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4">
+        <f>AVERAGE(E52:E61)</f>
+        <v>20033.646249779998</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="e">
+        <f>AVERAGE(G52:G61)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63"/>
+      <c r="IW63"/>
+    </row>
+    <row r="64" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4">
+        <f>MAX(E52:E61)</f>
+        <v>22062.911987300002</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4">
+        <f>MAX(G52:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64"/>
+      <c r="IW64"/>
+    </row>
+    <row r="65" spans="1:257" ht="12.95" customHeight="1">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65"/>
+      <c r="IW65"/>
+    </row>
+    <row r="66" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="H66" s="6"/>
+      <c r="I66"/>
+      <c r="IW66"/>
+    </row>
+    <row r="67" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67"/>
+      <c r="IW67"/>
+    </row>
+    <row r="68" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A68" s="1">
+        <v>10</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68"/>
+      <c r="IW68"/>
+    </row>
+    <row r="69" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A69" s="1">
+        <v>9</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="H69" s="6"/>
+      <c r="I69"/>
+      <c r="IW69"/>
+    </row>
+    <row r="70" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A70" s="1">
+        <v>8</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="H70" s="6"/>
+      <c r="I70"/>
+      <c r="IW70"/>
+    </row>
+    <row r="71" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A71" s="1">
+        <v>7</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="H71" s="6"/>
+      <c r="I71"/>
+      <c r="IW71"/>
+    </row>
+    <row r="72" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A72" s="1">
+        <v>6</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="H72" s="6"/>
+      <c r="I72"/>
+      <c r="IW72"/>
+    </row>
+    <row r="73" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A73" s="1">
+        <v>5</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="H73" s="6"/>
+      <c r="I73"/>
+      <c r="IW73"/>
+    </row>
+    <row r="74" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A74" s="1">
+        <v>4</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="H74" s="6"/>
+      <c r="I74"/>
+      <c r="IW74"/>
+    </row>
+    <row r="75" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="H75" s="6"/>
+      <c r="I75"/>
+      <c r="IW75"/>
+    </row>
+    <row r="76" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="H76" s="6"/>
+      <c r="I76"/>
+      <c r="IW76"/>
+    </row>
+    <row r="77" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="6"/>
+      <c r="I77"/>
+      <c r="IW77"/>
+    </row>
+    <row r="78" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4">
+        <f>MIN(G68:G77)</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78"/>
+      <c r="IW78"/>
+    </row>
+    <row r="79" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="e">
+        <f>AVERAGE(G68:G77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79"/>
+      <c r="IW79"/>
+    </row>
+    <row r="80" spans="1:257" ht="12.95" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4">
+        <f>MAX(G68:G77)</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80"/>
+      <c r="IW80"/>
+    </row>
+    <row r="81" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81"/>
+      <c r="IW81"/>
+    </row>
+    <row r="82" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82"/>
+      <c r="IW82"/>
+    </row>
+    <row r="83" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83"/>
+      <c r="IW83"/>
+    </row>
+    <row r="84" spans="3:257" ht="12.95" customHeight="1">
+      <c r="I84"/>
+      <c r="IW84"/>
+    </row>
+    <row r="85" spans="3:257" ht="12.95" customHeight="1">
+      <c r="I85"/>
+      <c r="IW85"/>
+    </row>
+    <row r="86" spans="3:257" ht="12.95" customHeight="1">
+      <c r="I86"/>
+      <c r="IW86"/>
+    </row>
+    <row r="87" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87"/>
+      <c r="IW87"/>
+    </row>
+    <row r="88" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88"/>
+      <c r="IW88"/>
+    </row>
+    <row r="89" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89"/>
+      <c r="IW89"/>
+    </row>
+    <row r="90" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90"/>
+      <c r="IW90"/>
+    </row>
+    <row r="91" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91"/>
+      <c r="IW91"/>
+    </row>
+    <row r="92" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92"/>
+      <c r="IW92"/>
+    </row>
+    <row r="93" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93"/>
+      <c r="IW93"/>
+    </row>
+    <row r="94" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94"/>
+      <c r="IW94"/>
+    </row>
+    <row r="95" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95"/>
+      <c r="IW95"/>
+    </row>
+    <row r="96" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96"/>
+      <c r="IW96"/>
+    </row>
+    <row r="97" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97"/>
+      <c r="IW97"/>
+    </row>
+    <row r="98" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98"/>
+      <c r="IW98"/>
+    </row>
+    <row r="99" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99"/>
+      <c r="IW99"/>
+    </row>
+    <row r="100" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="1"/>
+      <c r="IW100"/>
+    </row>
+    <row r="101" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="1"/>
+      <c r="IW101"/>
+    </row>
+    <row r="102" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102"/>
+      <c r="IW102"/>
+    </row>
+    <row r="103" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103"/>
+      <c r="IW103"/>
+    </row>
+    <row r="104" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104"/>
+      <c r="IW104"/>
+    </row>
+    <row r="105" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105"/>
+      <c r="IW105"/>
+    </row>
+    <row r="106" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106"/>
+      <c r="IW106"/>
+    </row>
+    <row r="107" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107"/>
+      <c r="IW107"/>
+    </row>
+    <row r="108" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108"/>
+      <c r="IW108"/>
+    </row>
+    <row r="109" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109"/>
+      <c r="IW109"/>
+    </row>
+    <row r="110" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110"/>
+      <c r="IW110"/>
+    </row>
+    <row r="111" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111"/>
+      <c r="IW111"/>
+    </row>
+    <row r="112" spans="3:257" ht="12.95" customHeight="1">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="3:9" ht="12.95" customHeight="1">
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" ht="12.95" customHeight="1">
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" ht="12.95" customHeight="1">
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="3:9" ht="12.95" customHeight="1">
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" ht="12.95" customHeight="1">
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" ht="12.95" customHeight="1">
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="3:9" ht="12.95" customHeight="1">
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -14194,4 +15533,2075 @@
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="25" customWidth="1"/>
+    <col min="2" max="4" width="11.5703125" style="25"/>
+    <col min="5" max="5" width="2" style="25" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="28" customFormat="1">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>649</v>
+      </c>
+      <c r="C3" s="25">
+        <v>793</v>
+      </c>
+      <c r="D3" s="25">
+        <v>912</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="29">
+        <f>B3</f>
+        <v>649</v>
+      </c>
+      <c r="C4" s="29">
+        <f>C3</f>
+        <v>793</v>
+      </c>
+      <c r="D4" s="29">
+        <f>D3</f>
+        <v>912</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="25">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25">
+        <v>648</v>
+      </c>
+      <c r="C5" s="25">
+        <v>763</v>
+      </c>
+      <c r="D5" s="25">
+        <v>985</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="25">
+        <v>652</v>
+      </c>
+      <c r="C6" s="25">
+        <v>741</v>
+      </c>
+      <c r="D6" s="25">
+        <v>854</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="25">
+        <v>649</v>
+      </c>
+      <c r="C7" s="25">
+        <v>739</v>
+      </c>
+      <c r="D7" s="25">
+        <v>924</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="25">
+        <v>649</v>
+      </c>
+      <c r="C8" s="25">
+        <v>782</v>
+      </c>
+      <c r="D8" s="25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="25">
+        <v>670</v>
+      </c>
+      <c r="C9" s="25">
+        <v>819</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="29" customFormat="1">
+      <c r="A10" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="29">
+        <f>AVERAGE(B5:B9)</f>
+        <v>653.6</v>
+      </c>
+      <c r="C10" s="29">
+        <f>AVERAGE(C5:C9)</f>
+        <v>768.8</v>
+      </c>
+      <c r="D10" s="29">
+        <f>AVERAGE(D5:D9)</f>
+        <v>941.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25">
+        <v>768</v>
+      </c>
+      <c r="C11" s="25">
+        <v>917</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="25">
+        <v>665</v>
+      </c>
+      <c r="C12" s="25">
+        <v>798</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="25">
+        <v>449</v>
+      </c>
+      <c r="C13" s="25">
+        <v>860</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="25">
+        <v>648</v>
+      </c>
+      <c r="C14" s="25">
+        <v>902</v>
+      </c>
+      <c r="D14" s="25">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="25">
+        <v>373</v>
+      </c>
+      <c r="C15" s="25">
+        <v>915</v>
+      </c>
+      <c r="D15" s="25">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="25">
+        <v>378</v>
+      </c>
+      <c r="C16" s="25">
+        <v>897</v>
+      </c>
+      <c r="D16" s="25">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="25">
+        <v>350</v>
+      </c>
+      <c r="C17" s="25">
+        <v>834</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="25">
+        <v>644</v>
+      </c>
+      <c r="C18" s="25">
+        <v>803</v>
+      </c>
+      <c r="D18" s="25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="25">
+        <v>763</v>
+      </c>
+      <c r="C19" s="25">
+        <v>908</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="25">
+        <v>659</v>
+      </c>
+      <c r="C20" s="25">
+        <v>904</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="29">
+        <f>AVERAGE(B11:B20)</f>
+        <v>569.70000000000005</v>
+      </c>
+      <c r="C21" s="29">
+        <f>AVERAGE(C11:C20)</f>
+        <v>873.8</v>
+      </c>
+      <c r="D21" s="29">
+        <f>AVERAGE(D11:D20)</f>
+        <v>1604.5</v>
+      </c>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="25">
+        <v>20</v>
+      </c>
+      <c r="B22" s="25">
+        <v>667</v>
+      </c>
+      <c r="C22" s="25">
+        <v>924</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="25">
+        <v>659</v>
+      </c>
+      <c r="C23" s="25">
+        <v>872</v>
+      </c>
+      <c r="D23" s="25">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="25">
+        <v>661</v>
+      </c>
+      <c r="C24" s="25">
+        <v>919</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="25">
+        <v>641</v>
+      </c>
+      <c r="C25" s="25">
+        <v>870</v>
+      </c>
+      <c r="D25" s="25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="25">
+        <v>655</v>
+      </c>
+      <c r="C26" s="25">
+        <v>923</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="25">
+        <v>648</v>
+      </c>
+      <c r="C27" s="25">
+        <v>970</v>
+      </c>
+      <c r="D27" s="25">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="25">
+        <v>360</v>
+      </c>
+      <c r="C28" s="25">
+        <v>883</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="25">
+        <v>655</v>
+      </c>
+      <c r="C29" s="25">
+        <v>917</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="25">
+        <v>346</v>
+      </c>
+      <c r="C30" s="25">
+        <v>786</v>
+      </c>
+      <c r="D30" s="25">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="25">
+        <v>665</v>
+      </c>
+      <c r="C31" s="25">
+        <v>925</v>
+      </c>
+      <c r="D31" s="25">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="25">
+        <v>637</v>
+      </c>
+      <c r="C32" s="25">
+        <v>901</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="25">
+        <v>656</v>
+      </c>
+      <c r="C33" s="25">
+        <v>864</v>
+      </c>
+      <c r="D33" s="25">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="25">
+        <v>657</v>
+      </c>
+      <c r="C34" s="25">
+        <v>859</v>
+      </c>
+      <c r="D34" s="25">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="25">
+        <v>701</v>
+      </c>
+      <c r="C35" s="25">
+        <v>931</v>
+      </c>
+      <c r="D35" s="25">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="25">
+        <v>366</v>
+      </c>
+      <c r="C37" s="25">
+        <v>871</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="25">
+        <v>652</v>
+      </c>
+      <c r="C38" s="25">
+        <v>870</v>
+      </c>
+      <c r="D38" s="25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="25">
+        <v>666</v>
+      </c>
+      <c r="C39" s="25">
+        <v>917</v>
+      </c>
+      <c r="D39" s="25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="25">
+        <v>377</v>
+      </c>
+      <c r="C40" s="25">
+        <v>893</v>
+      </c>
+      <c r="D40" s="25">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="25">
+        <v>647</v>
+      </c>
+      <c r="C41" s="25">
+        <v>888</v>
+      </c>
+      <c r="D41" s="25">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="29">
+        <f>AVERAGE(B22:B41)</f>
+        <v>595.57894736842104</v>
+      </c>
+      <c r="C42" s="29">
+        <f>AVERAGE(C22:C41)</f>
+        <v>893.84210526315792</v>
+      </c>
+      <c r="D42" s="29">
+        <f>AVERAGE(D22:D41)</f>
+        <v>1527.3157894736842</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="25">
+        <v>48</v>
+      </c>
+      <c r="B43" s="25">
+        <v>733</v>
+      </c>
+      <c r="C43" s="25">
+        <v>1077</v>
+      </c>
+      <c r="D43" s="25">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="25">
+        <v>528</v>
+      </c>
+      <c r="C44" s="25">
+        <v>1116</v>
+      </c>
+      <c r="D44" s="25">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="25">
+        <v>720</v>
+      </c>
+      <c r="C45" s="25">
+        <v>1096</v>
+      </c>
+      <c r="D45" s="25">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" s="25">
+        <v>691</v>
+      </c>
+      <c r="C46" s="25">
+        <v>1157</v>
+      </c>
+      <c r="D46" s="25">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="25">
+        <v>611</v>
+      </c>
+      <c r="C47" s="25">
+        <v>1116</v>
+      </c>
+      <c r="D47" s="25">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="25">
+        <v>786</v>
+      </c>
+      <c r="C48" s="25">
+        <v>1111</v>
+      </c>
+      <c r="D48" s="25">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="25">
+        <v>786</v>
+      </c>
+      <c r="C49" s="25">
+        <v>1129</v>
+      </c>
+      <c r="D49" s="25">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="25">
+        <v>542</v>
+      </c>
+      <c r="C50" s="25">
+        <v>1016</v>
+      </c>
+      <c r="D50" s="25">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="25">
+        <v>701</v>
+      </c>
+      <c r="C51" s="25">
+        <v>1083</v>
+      </c>
+      <c r="D51" s="25">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="25">
+        <v>783</v>
+      </c>
+      <c r="C52" s="25">
+        <v>1152</v>
+      </c>
+      <c r="D52" s="25">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="25">
+        <v>683</v>
+      </c>
+      <c r="C53" s="25">
+        <v>1070</v>
+      </c>
+      <c r="D53" s="25">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="25">
+        <v>750</v>
+      </c>
+      <c r="C54" s="25">
+        <v>1086</v>
+      </c>
+      <c r="D54" s="25">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="25">
+        <v>674</v>
+      </c>
+      <c r="C55" s="25">
+        <v>1063</v>
+      </c>
+      <c r="D55" s="25">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="25">
+        <v>705</v>
+      </c>
+      <c r="C56" s="25">
+        <v>995</v>
+      </c>
+      <c r="D56" s="25">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="25">
+        <v>688</v>
+      </c>
+      <c r="C57" s="25">
+        <v>989</v>
+      </c>
+      <c r="D57" s="25">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="25">
+        <v>736</v>
+      </c>
+      <c r="C58" s="25">
+        <v>1084</v>
+      </c>
+      <c r="D58" s="25">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="25">
+        <v>743</v>
+      </c>
+      <c r="C59" s="25">
+        <v>1091</v>
+      </c>
+      <c r="D59" s="25">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="25">
+        <v>569</v>
+      </c>
+      <c r="C60" s="25">
+        <v>1080</v>
+      </c>
+      <c r="D60" s="25">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="25">
+        <v>783</v>
+      </c>
+      <c r="C61" s="25">
+        <v>997</v>
+      </c>
+      <c r="D61" s="25">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="25">
+        <v>409</v>
+      </c>
+      <c r="C62" s="25">
+        <v>1046</v>
+      </c>
+      <c r="D62" s="25">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="25">
+        <v>667</v>
+      </c>
+      <c r="C63" s="25">
+        <v>1149</v>
+      </c>
+      <c r="D63" s="25">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="25">
+        <v>699</v>
+      </c>
+      <c r="C64" s="25">
+        <v>1078</v>
+      </c>
+      <c r="D64" s="25">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="25">
+        <v>778</v>
+      </c>
+      <c r="C65" s="25">
+        <v>1050</v>
+      </c>
+      <c r="D65" s="25">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="25">
+        <v>675</v>
+      </c>
+      <c r="C66" s="25">
+        <v>962</v>
+      </c>
+      <c r="D66" s="25">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="25">
+        <v>700</v>
+      </c>
+      <c r="C67" s="25">
+        <v>1075</v>
+      </c>
+      <c r="D67" s="25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="25">
+        <v>676</v>
+      </c>
+      <c r="C68" s="25">
+        <v>1046</v>
+      </c>
+      <c r="D68" s="25">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="25">
+        <v>469</v>
+      </c>
+      <c r="C69" s="25">
+        <v>1065</v>
+      </c>
+      <c r="D69" s="25">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="25">
+        <v>889</v>
+      </c>
+      <c r="C70" s="25">
+        <v>1041</v>
+      </c>
+      <c r="D70" s="25">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="25">
+        <v>510</v>
+      </c>
+      <c r="C71" s="25">
+        <v>903</v>
+      </c>
+      <c r="D71" s="25">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="25">
+        <v>701</v>
+      </c>
+      <c r="C72" s="25">
+        <v>1110</v>
+      </c>
+      <c r="D72" s="25">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="25">
+        <v>704</v>
+      </c>
+      <c r="C73" s="25">
+        <v>992</v>
+      </c>
+      <c r="D73" s="25">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="25">
+        <v>781</v>
+      </c>
+      <c r="C74" s="25">
+        <v>1050</v>
+      </c>
+      <c r="D74" s="25">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="25">
+        <v>782</v>
+      </c>
+      <c r="C75" s="25">
+        <v>1092</v>
+      </c>
+      <c r="D75" s="25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="25">
+        <v>726</v>
+      </c>
+      <c r="C76" s="25">
+        <v>992</v>
+      </c>
+      <c r="D76" s="25">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="25">
+        <v>629</v>
+      </c>
+      <c r="C77" s="25">
+        <v>1113</v>
+      </c>
+      <c r="D77" s="25">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="25">
+        <v>570</v>
+      </c>
+      <c r="C78" s="25">
+        <v>957</v>
+      </c>
+      <c r="D78" s="25">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="25">
+        <v>681</v>
+      </c>
+      <c r="C79" s="25">
+        <v>1095</v>
+      </c>
+      <c r="D79" s="25">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="25">
+        <v>452</v>
+      </c>
+      <c r="C80" s="25">
+        <v>1016</v>
+      </c>
+      <c r="D80" s="25">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="B81" s="25">
+        <v>750</v>
+      </c>
+      <c r="C81" s="25">
+        <v>1075</v>
+      </c>
+      <c r="D81" s="25">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82" s="25">
+        <v>749</v>
+      </c>
+      <c r="C82" s="25">
+        <v>1078</v>
+      </c>
+      <c r="D82" s="25">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" s="25">
+        <v>536</v>
+      </c>
+      <c r="C83" s="25">
+        <v>1073</v>
+      </c>
+      <c r="D83" s="25">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" s="25">
+        <v>699</v>
+      </c>
+      <c r="C84" s="25">
+        <v>1055</v>
+      </c>
+      <c r="D84" s="25">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" s="25">
+        <v>477</v>
+      </c>
+      <c r="C85" s="25">
+        <v>973</v>
+      </c>
+      <c r="D85" s="25">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" s="25">
+        <v>750</v>
+      </c>
+      <c r="C86" s="25">
+        <v>1105</v>
+      </c>
+      <c r="D86" s="25">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" s="25">
+        <v>751</v>
+      </c>
+      <c r="C87" s="25">
+        <v>1072</v>
+      </c>
+      <c r="D87" s="25">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="25">
+        <v>831</v>
+      </c>
+      <c r="C88" s="25">
+        <v>1135</v>
+      </c>
+      <c r="D88" s="25">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89" s="25">
+        <v>583</v>
+      </c>
+      <c r="C89" s="25">
+        <v>1055</v>
+      </c>
+      <c r="D89" s="25">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90" s="25">
+        <v>660</v>
+      </c>
+      <c r="C90" s="25">
+        <v>977</v>
+      </c>
+      <c r="D90" s="25">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="29">
+        <f>AVERAGE(B43:B90)</f>
+        <v>677</v>
+      </c>
+      <c r="C91" s="29">
+        <f>AVERAGE(C43:C90)</f>
+        <v>1061.2083333333333</v>
+      </c>
+      <c r="D91" s="29">
+        <f>AVERAGE(D43:D90)</f>
+        <v>2115.0833333333335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="25">
+        <v>550</v>
+      </c>
+      <c r="C92" s="25">
+        <v>1186</v>
+      </c>
+      <c r="D92" s="25">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" s="25">
+        <v>412</v>
+      </c>
+      <c r="C93" s="25">
+        <v>1109</v>
+      </c>
+      <c r="D93" s="25">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" s="25">
+        <v>532</v>
+      </c>
+      <c r="C94" s="25">
+        <v>1099</v>
+      </c>
+      <c r="D94" s="25">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95" s="25">
+        <v>659</v>
+      </c>
+      <c r="C95" s="25">
+        <v>1205</v>
+      </c>
+      <c r="D95" s="25">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" s="25">
+        <v>645</v>
+      </c>
+      <c r="C96" s="25">
+        <v>1267</v>
+      </c>
+      <c r="D96" s="25">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="25">
+        <v>543</v>
+      </c>
+      <c r="C97" s="25">
+        <v>1161</v>
+      </c>
+      <c r="D97" s="25">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="25">
+        <v>676</v>
+      </c>
+      <c r="C98" s="25">
+        <v>1140</v>
+      </c>
+      <c r="D98" s="25">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="25">
+        <v>548</v>
+      </c>
+      <c r="C99" s="25">
+        <v>1256</v>
+      </c>
+      <c r="D99" s="25">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="25">
+        <v>635</v>
+      </c>
+      <c r="C100" s="25">
+        <v>1160</v>
+      </c>
+      <c r="D100" s="25">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="25">
+        <v>549</v>
+      </c>
+      <c r="C101" s="25">
+        <v>1139</v>
+      </c>
+      <c r="D101" s="25">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="25">
+        <v>255</v>
+      </c>
+      <c r="C102" s="25">
+        <v>1115</v>
+      </c>
+      <c r="D102" s="25">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="25">
+        <v>556</v>
+      </c>
+      <c r="C103" s="25">
+        <v>1133</v>
+      </c>
+      <c r="D103" s="25">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="25">
+        <v>245</v>
+      </c>
+      <c r="C104" s="25">
+        <v>1202</v>
+      </c>
+      <c r="D104" s="25">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="25">
+        <v>457</v>
+      </c>
+      <c r="C105" s="25">
+        <v>1176</v>
+      </c>
+      <c r="D105" s="25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="25">
+        <v>551</v>
+      </c>
+      <c r="C106" s="25">
+        <v>1219</v>
+      </c>
+      <c r="D106" s="25">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="25">
+        <v>568</v>
+      </c>
+      <c r="C107" s="25">
+        <v>1093</v>
+      </c>
+      <c r="D107" s="25">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="25">
+        <v>762</v>
+      </c>
+      <c r="C108" s="25">
+        <v>1198</v>
+      </c>
+      <c r="D108" s="25">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="25">
+        <v>557</v>
+      </c>
+      <c r="C109" s="25">
+        <v>1196</v>
+      </c>
+      <c r="D109" s="25">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="25">
+        <v>583</v>
+      </c>
+      <c r="C110" s="25">
+        <v>1195</v>
+      </c>
+      <c r="D110" s="25">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="25">
+        <v>472</v>
+      </c>
+      <c r="C111" s="25">
+        <v>1117</v>
+      </c>
+      <c r="D111" s="25">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="25">
+        <v>265</v>
+      </c>
+      <c r="C112" s="25">
+        <v>1154</v>
+      </c>
+      <c r="D112" s="25">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="25">
+        <v>664</v>
+      </c>
+      <c r="C113" s="25">
+        <v>1133</v>
+      </c>
+      <c r="D113" s="25">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="25">
+        <v>583</v>
+      </c>
+      <c r="C114" s="25">
+        <v>1148</v>
+      </c>
+      <c r="D114" s="25">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="25">
+        <v>539</v>
+      </c>
+      <c r="C115" s="25">
+        <v>1125</v>
+      </c>
+      <c r="D115" s="25">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="25">
+        <v>664</v>
+      </c>
+      <c r="C116" s="25">
+        <v>1127</v>
+      </c>
+      <c r="D116" s="25">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="25">
+        <v>270</v>
+      </c>
+      <c r="C117" s="25">
+        <v>1144</v>
+      </c>
+      <c r="D117" s="25">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="25">
+        <v>571</v>
+      </c>
+      <c r="C118" s="25">
+        <v>1166</v>
+      </c>
+      <c r="D118" s="25">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="25">
+        <v>452</v>
+      </c>
+      <c r="C119" s="25">
+        <v>1196</v>
+      </c>
+      <c r="D119" s="25">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="25">
+        <v>566</v>
+      </c>
+      <c r="C120" s="25">
+        <v>1203</v>
+      </c>
+      <c r="D120" s="25">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="25">
+        <v>265</v>
+      </c>
+      <c r="C121" s="25">
+        <v>1084</v>
+      </c>
+      <c r="D121" s="25">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="25">
+        <v>558</v>
+      </c>
+      <c r="C122" s="25">
+        <v>1134</v>
+      </c>
+      <c r="D122" s="25">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" s="25">
+        <v>558</v>
+      </c>
+      <c r="C123" s="25">
+        <v>1107</v>
+      </c>
+      <c r="D123" s="25">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" s="25">
+        <v>270</v>
+      </c>
+      <c r="C124" s="25">
+        <v>1149</v>
+      </c>
+      <c r="D124" s="25">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" s="25">
+        <v>564</v>
+      </c>
+      <c r="C125" s="25">
+        <v>1155</v>
+      </c>
+      <c r="D125" s="25">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" s="25">
+        <v>570</v>
+      </c>
+      <c r="C126" s="25">
+        <v>1227</v>
+      </c>
+      <c r="D126" s="25">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" s="25">
+        <v>350</v>
+      </c>
+      <c r="C127" s="25">
+        <v>1216</v>
+      </c>
+      <c r="D127" s="25">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" s="25">
+        <v>268</v>
+      </c>
+      <c r="C128" s="25">
+        <v>1185</v>
+      </c>
+      <c r="D128" s="25">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="25">
+        <v>555</v>
+      </c>
+      <c r="C129" s="25">
+        <v>1126</v>
+      </c>
+      <c r="D129" s="25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="25">
+        <v>349</v>
+      </c>
+      <c r="C130" s="25">
+        <v>1174</v>
+      </c>
+      <c r="D130" s="25">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="25">
+        <v>562</v>
+      </c>
+      <c r="C131" s="25">
+        <v>1172</v>
+      </c>
+      <c r="D131" s="25">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="25">
+        <v>662</v>
+      </c>
+      <c r="C132" s="25">
+        <v>1273</v>
+      </c>
+      <c r="D132" s="25">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="25">
+        <v>263</v>
+      </c>
+      <c r="C133" s="25">
+        <v>1181</v>
+      </c>
+      <c r="D133" s="25">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="25">
+        <v>436</v>
+      </c>
+      <c r="C134" s="25">
+        <v>1075</v>
+      </c>
+      <c r="D134" s="25">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="25">
+        <v>550</v>
+      </c>
+      <c r="C135" s="25">
+        <v>1148</v>
+      </c>
+      <c r="D135" s="25">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="25">
+        <v>359</v>
+      </c>
+      <c r="C136" s="25">
+        <v>1182</v>
+      </c>
+      <c r="D136" s="25">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" s="25">
+        <v>477</v>
+      </c>
+      <c r="C137" s="25">
+        <v>1164</v>
+      </c>
+      <c r="D137" s="25">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" s="25">
+        <v>582</v>
+      </c>
+      <c r="C138" s="25">
+        <v>1231</v>
+      </c>
+      <c r="D138" s="25">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" s="25">
+        <v>537</v>
+      </c>
+      <c r="C139" s="25">
+        <v>1095</v>
+      </c>
+      <c r="D139" s="25">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" s="25">
+        <v>459</v>
+      </c>
+      <c r="C140" s="25">
+        <v>1149</v>
+      </c>
+      <c r="D140" s="25">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="25">
+        <v>706</v>
+      </c>
+      <c r="C141" s="25">
+        <v>1117</v>
+      </c>
+      <c r="D141" s="25">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="25">
+        <v>350</v>
+      </c>
+      <c r="C142" s="25">
+        <v>1092</v>
+      </c>
+      <c r="D142" s="25">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="25">
+        <v>570</v>
+      </c>
+      <c r="C143" s="25">
+        <v>1221</v>
+      </c>
+      <c r="D143" s="25">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="25">
+        <v>471</v>
+      </c>
+      <c r="C144" s="25">
+        <v>1076</v>
+      </c>
+      <c r="D144" s="25">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="25">
+        <v>267</v>
+      </c>
+      <c r="C145" s="25">
+        <v>1085</v>
+      </c>
+      <c r="D145" s="25">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="25">
+        <v>659</v>
+      </c>
+      <c r="C146" s="25">
+        <v>1154</v>
+      </c>
+      <c r="D146" s="25">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="25">
+        <v>369</v>
+      </c>
+      <c r="C147" s="25">
+        <v>1097</v>
+      </c>
+      <c r="D147" s="25">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="25">
+        <v>565</v>
+      </c>
+      <c r="C148" s="25">
+        <v>1170</v>
+      </c>
+      <c r="D148" s="25">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="25">
+        <v>471</v>
+      </c>
+      <c r="C149" s="25">
+        <v>1112</v>
+      </c>
+      <c r="D149" s="25">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="25">
+        <v>617</v>
+      </c>
+      <c r="C150" s="25">
+        <v>1171</v>
+      </c>
+      <c r="D150" s="25">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="25">
+        <v>273</v>
+      </c>
+      <c r="C151" s="25">
+        <v>1059</v>
+      </c>
+      <c r="D151" s="25">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="25">
+        <v>555</v>
+      </c>
+      <c r="C152" s="25">
+        <v>1208</v>
+      </c>
+      <c r="D152" s="25">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="25">
+        <v>617</v>
+      </c>
+      <c r="C153" s="25">
+        <v>1196</v>
+      </c>
+      <c r="D153" s="25">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="25">
+        <v>674</v>
+      </c>
+      <c r="C154" s="25">
+        <v>1198</v>
+      </c>
+      <c r="D154" s="25">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" s="25">
+        <v>561</v>
+      </c>
+      <c r="C155" s="25">
+        <v>1214</v>
+      </c>
+      <c r="D155" s="25">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="25">
+        <v>431</v>
+      </c>
+      <c r="C156" s="25">
+        <v>1135</v>
+      </c>
+      <c r="D156" s="25">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" s="25">
+        <v>662</v>
+      </c>
+      <c r="C157" s="25">
+        <v>1193</v>
+      </c>
+      <c r="D157" s="25">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" s="25">
+        <v>278</v>
+      </c>
+      <c r="C158" s="25">
+        <v>1078</v>
+      </c>
+      <c r="D158" s="25">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="25">
+        <v>579</v>
+      </c>
+      <c r="C159" s="25">
+        <v>1243</v>
+      </c>
+      <c r="D159" s="25">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="25">
+        <v>668</v>
+      </c>
+      <c r="C160" s="25">
+        <v>1209</v>
+      </c>
+      <c r="D160" s="25">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="B161" s="25">
+        <v>471</v>
+      </c>
+      <c r="C161" s="25">
+        <v>1083</v>
+      </c>
+      <c r="D161" s="25">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="B162" s="25">
+        <v>473</v>
+      </c>
+      <c r="C162" s="25">
+        <v>1227</v>
+      </c>
+      <c r="D162" s="25">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="B163" s="25">
+        <v>543</v>
+      </c>
+      <c r="C163" s="25">
+        <v>1219</v>
+      </c>
+      <c r="D163" s="25">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="B164" s="25">
+        <v>662</v>
+      </c>
+      <c r="C164" s="25">
+        <v>1111</v>
+      </c>
+      <c r="D164" s="25">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="B165" s="25">
+        <v>549</v>
+      </c>
+      <c r="C165" s="25">
+        <v>1222</v>
+      </c>
+      <c r="D165" s="25">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="B166" s="25">
+        <v>567</v>
+      </c>
+      <c r="C166" s="25">
+        <v>1241</v>
+      </c>
+      <c r="D166" s="25">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="B167" s="25">
+        <v>569</v>
+      </c>
+      <c r="C167" s="25">
+        <v>1125</v>
+      </c>
+      <c r="D167" s="25">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" s="29">
+        <f>AVERAGE(B92:B167)</f>
+        <v>509.21052631578948</v>
+      </c>
+      <c r="C168" s="29">
+        <f>AVERAGE(C92:C167)</f>
+        <v>1161.1184210526317</v>
+      </c>
+      <c r="D168" s="29">
+        <f>AVERAGE(D92:D167)</f>
+        <v>2753.3157894736842</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="25">
+        <v>1</v>
+      </c>
+      <c r="B171" s="26">
+        <f>B3</f>
+        <v>649</v>
+      </c>
+      <c r="C171" s="26">
+        <f>C3</f>
+        <v>793</v>
+      </c>
+      <c r="D171" s="26">
+        <f>D3</f>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="25">
+        <v>5</v>
+      </c>
+      <c r="B172" s="26">
+        <f>B10</f>
+        <v>653.6</v>
+      </c>
+      <c r="C172" s="26">
+        <f>C10</f>
+        <v>768.8</v>
+      </c>
+      <c r="D172" s="26">
+        <f>D10</f>
+        <v>941.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="25">
+        <v>10</v>
+      </c>
+      <c r="B173" s="26">
+        <f>B21</f>
+        <v>569.70000000000005</v>
+      </c>
+      <c r="C173" s="26">
+        <f>C21</f>
+        <v>873.8</v>
+      </c>
+      <c r="D173" s="26">
+        <f>D21</f>
+        <v>1604.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="25">
+        <v>20</v>
+      </c>
+      <c r="B174" s="26">
+        <f>B42</f>
+        <v>595.57894736842104</v>
+      </c>
+      <c r="C174" s="26">
+        <f>C42</f>
+        <v>893.84210526315792</v>
+      </c>
+      <c r="D174" s="26">
+        <f>D42</f>
+        <v>1527.3157894736842</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="25">
+        <v>48</v>
+      </c>
+      <c r="B175" s="26">
+        <f>B91</f>
+        <v>677</v>
+      </c>
+      <c r="C175" s="26">
+        <f>C91</f>
+        <v>1061.2083333333333</v>
+      </c>
+      <c r="D175" s="26">
+        <f>D91</f>
+        <v>2115.0833333333335</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B176" s="26">
+        <f>B168</f>
+        <v>509.21052631578948</v>
+      </c>
+      <c r="C176" s="26">
+        <f>C168</f>
+        <v>1161.1184210526317</v>
+      </c>
+      <c r="D176" s="26">
+        <f>D168</f>
+        <v>2753.3157894736842</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>